--- a/Jogos_do_Dia/2023-02-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -763,10 +763,10 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="N3" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O3" t="n">
         <v>1.49</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -867,16 +867,16 @@
         <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
         <v>2.4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="N5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O5" t="n">
         <v>1.46</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>2.9</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.06</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.7</v>
       </c>
       <c r="M8" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1423,10 +1423,10 @@
         <v>2.9</v>
       </c>
       <c r="M9" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
@@ -1518,7 +1518,7 @@
         <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="N10" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="O10" t="n">
         <v>1.45</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="N12" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -1795,28 +1795,28 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-02-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,7 +680,7 @@
         <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -763,10 +763,10 @@
         <v>2.7</v>
       </c>
       <c r="M3" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="N3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
         <v>1.49</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -870,13 +870,13 @@
         <v>1.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M4" t="n">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>6.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.46</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="G6" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.89</v>
       </c>
       <c r="I6" t="n">
         <v>1.06</v>
@@ -1093,10 +1093,10 @@
         <v>2.9</v>
       </c>
       <c r="M6" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G7" t="n">
         <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>3.34</v>
       </c>
       <c r="M7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.7</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1405,10 +1405,10 @@
         <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1423,10 +1423,10 @@
         <v>2.9</v>
       </c>
       <c r="M9" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.42</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="N10" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="O10" t="n">
         <v>1.45</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="I11" t="n">
         <v>1.04</v>
@@ -1643,10 +1643,10 @@
         <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="N11" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
